--- a/finance/Expenditures.xlsx
+++ b/finance/Expenditures.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Item</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Remaining Funds</t>
+  </si>
+  <si>
+    <t>.net Website</t>
+  </si>
+  <si>
+    <t>Paint</t>
   </si>
 </sst>
 </file>
@@ -100,7 +106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,37 +115,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -153,67 +129,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,103 +473,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="36" customHeight="1" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:3" ht="36" customHeight="1">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="2:3" ht="30" customHeight="1">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="2:3" ht="29" customHeight="1">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" customHeight="1">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="2:3" ht="30" customHeight="1">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="C4" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" customHeight="1">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="2:3" ht="30" customHeight="1">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="C5" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" customHeight="1">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="2:3" ht="30" customHeight="1">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="C6" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" customHeight="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="2:3" ht="30" customHeight="1">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="C7" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" hidden="1">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="2:3" ht="18" hidden="1">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="e">
+      <c r="C8" s="2" t="e">
         <f>sum</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="33" customHeight="1">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="2:3" ht="33" customHeight="1">
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="37" customHeight="1">
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="30" customHeight="1">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5">
-        <f>SUM(B3:B7)</f>
+      <c r="C11" s="3">
+        <f>SUM(C3:C7)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="37" customHeight="1">
-      <c r="A10" s="6" t="s">
+    <row r="12" spans="2:3" ht="36" customHeight="1">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="C12" s="6">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1" thickBot="1">
-      <c r="A11" s="9" t="s">
+    <row r="13" spans="2:3" ht="34" customHeight="1">
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="10">
-        <f>(B10-B9)</f>
+      <c r="C13" s="3">
+        <f>(C12-C11)</f>
         <v>78</v>
       </c>
     </row>
